--- a/Project Outputs for VoodooMagic/BOM/Bill of Materials-ESE516_ExampleProject.xlsx
+++ b/Project Outputs for VoodooMagic/BOM/Bill of Materials-ESE516_ExampleProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyMaterials\Upenn\ESE516\ESE516_Starter_PCB-main\Project Outputs for VoodooMagic\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyMaterials\Upenn\ESE516\ESE516_Starter_PCB-main\VoodooMagic (2021-3-3 21-04-34)\Project Outputs for VoodooMagic\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C9F4C-5680-447F-8938-54ACAC46DF65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA19C7C-2418-4AB0-8006-7558FD4D8B3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{19E7BA01-BD76-429B-A793-74ACA3B4B2B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{81BA42CF-FB35-4BE5-9C01-774E43174D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESE516_Exampl" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="329">
   <si>
     <t>Line #</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Adafruit Industries</t>
   </si>
   <si>
+    <t>3954</t>
+  </si>
+  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>SparkFun</t>
   </si>
   <si>
+    <t>LCD-14532</t>
+  </si>
+  <si>
     <t>1568-1819-ND</t>
   </si>
   <si>
@@ -104,7 +110,7 @@
     <t>C1, C3, C7, C16</t>
   </si>
   <si>
-    <t>CAP 100nF 16V 0603(1608)</t>
+    <t>100nF 16V, CAP 100nF 16V 0603(1608)</t>
   </si>
   <si>
     <t>Yageo</t>
@@ -128,7 +134,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>CAP 10nF 16V 0603(1608)</t>
+    <t>10nF 16V</t>
   </si>
   <si>
     <t>CC0603KRX7R7BB103</t>
@@ -146,7 +152,7 @@
     <t>C4, C30, C31</t>
   </si>
   <si>
-    <t>CAP 4.7uF 16V 0805(2012)</t>
+    <t>4.7uF 16V</t>
   </si>
   <si>
     <t>CC0805KKX7R8BB475</t>
@@ -161,7 +167,7 @@
     <t>C5, C6, C8, C9, C17, C19</t>
   </si>
   <si>
-    <t>CAP 100pF 50V 0603(1608)</t>
+    <t>CAP 100pF 50V</t>
   </si>
   <si>
     <t>KEMET</t>
@@ -182,7 +188,7 @@
     <t>C10, C13, C29</t>
   </si>
   <si>
-    <t>CAP 1uF 16V 0603(1608)</t>
+    <t>1uF 16V</t>
   </si>
   <si>
     <t>CC0603KRX7R7BB105</t>
@@ -200,7 +206,7 @@
     <t>C11, C12</t>
   </si>
   <si>
-    <t>CAP 10uF 16V 0805(2012)</t>
+    <t>10uF 16V, CAP 10uF 16V 0805(2012)</t>
   </si>
   <si>
     <t>Kyocera AVX</t>
@@ -221,7 +227,7 @@
     <t>C14, C15</t>
   </si>
   <si>
-    <t>CAP 18pF 16V 0603(1608)</t>
+    <t>18pF 16V</t>
   </si>
   <si>
     <t>C0603C180J4GACTU</t>
@@ -236,7 +242,7 @@
     <t>C18</t>
   </si>
   <si>
-    <t>CAP 1nF 10V 0603(1608)</t>
+    <t>CAP 1nF 10V</t>
   </si>
   <si>
     <t>CC0603KRX7R7BB102</t>
@@ -251,12 +257,15 @@
     <t>C20, C21, C26, C27</t>
   </si>
   <si>
+    <t>47uF 16V</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
     <t>GRM32ER61C476KE15L</t>
   </si>
   <si>
-    <t>Murata</t>
-  </si>
-  <si>
     <t>490-6539-6-ND</t>
   </si>
   <si>
@@ -266,7 +275,7 @@
     <t>C22, C25</t>
   </si>
   <si>
-    <t>CAP 100nF 10V 0603(1608)</t>
+    <t>CAP 100nF 10V, 100nF 10V</t>
   </si>
   <si>
     <t>CC0402KRX7R7BB104</t>
@@ -281,7 +290,7 @@
     <t>C23, C24</t>
   </si>
   <si>
-    <t>CAP 1uF 10V 0603(1608)</t>
+    <t>1uF 10V</t>
   </si>
   <si>
     <t>CC0603KPX7R8BB105</t>
@@ -296,7 +305,7 @@
     <t>C28</t>
   </si>
   <si>
-    <t>CAP 8.2nF 10V 0603(1608)</t>
+    <t>CAP 8.2nF 10V</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB822</t>
@@ -311,7 +320,7 @@
     <t>C32</t>
   </si>
   <si>
-    <t>CAP 120pF 10V 0603(1608)</t>
+    <t>120pF 10V</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB121</t>
@@ -323,15 +332,18 @@
     <t>Chip Capacitor, 22 uF, +/- 20%, 10 V, -55 to 85 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>C33, C37</t>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>22uF 10V</t>
+  </si>
+  <si>
+    <t>TDK</t>
   </si>
   <si>
     <t>C1608X5R1A226M080AC</t>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
     <t>445-9077-6-ND</t>
   </si>
   <si>
@@ -341,7 +353,7 @@
     <t>C34</t>
   </si>
   <si>
-    <t>CAP 4.7uF 10V 0603(1608)</t>
+    <t>4.7uF 10V</t>
   </si>
   <si>
     <t>CC0805KKX7R9BB225</t>
@@ -350,40 +362,19 @@
     <t>311-3420-6-ND</t>
   </si>
   <si>
-    <t>CAP 4.7uF 16V ±10% 0603 (1608 Metric) Thickness 1mm SMD</t>
+    <t>CAP 1uF 10V ±10% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
   </si>
   <si>
     <t>C35</t>
   </si>
   <si>
-    <t>CAP 4.7uF 16V 0603(1608)</t>
-  </si>
-  <si>
-    <t>CAP 120pF 16V ±5% 0603 (1608 Metric) Thickness 1mm SMD</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>CAP 120pF 16V 0603(1608)</t>
-  </si>
-  <si>
-    <t>CAP 1uF 10V ±10% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>CAP 1uF 10V 0402(1005)</t>
-  </si>
-  <si>
     <t>CAP 100nF 10V ±5% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
   </si>
   <si>
-    <t>C39, C40</t>
-  </si>
-  <si>
-    <t>CAP 100nF 10V 0402(1005)</t>
+    <t>C36, C37</t>
+  </si>
+  <si>
+    <t>100nF 10V</t>
   </si>
   <si>
     <t>CC0603KRX7R8BB104</t>
@@ -398,7 +389,7 @@
     <t>LED Uni-Color Red, 100 mW, 200 mA, -55 to 85 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>D1, D3</t>
+    <t>D1, D4</t>
   </si>
   <si>
     <t>LTST-C170CKT</t>
@@ -428,13 +419,28 @@
     <t>1727-3884-6-ND</t>
   </si>
   <si>
+    <t>LED RED DIFFUSED 0805 SMD</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>LH R974-LP-1</t>
+  </si>
+  <si>
+    <t>Osram Opto</t>
+  </si>
+  <si>
+    <t>475-1415-1-ND</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
     <t>LED Uni-Color Green, 100 mW, 120 mA, -55 to 85 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>D5</t>
   </si>
   <si>
     <t>LTST-C170GKT</t>
@@ -443,21 +449,6 @@
     <t>160-1179-1-ND</t>
   </si>
   <si>
-    <t>LED RED DIFFUSED 0805 SMD</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LH R974-LP-1</t>
-  </si>
-  <si>
-    <t>Osram Opto</t>
-  </si>
-  <si>
-    <t>475-1415-1-ND</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -515,12 +506,6 @@
     <t>1uH</t>
   </si>
   <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>SRP6540-1R0M</t>
-  </si>
-  <si>
     <t>SRP6540-1R0MCT-ND</t>
   </si>
   <si>
@@ -539,21 +524,6 @@
     <t>445-6367-1-ND</t>
   </si>
   <si>
-    <t>Inductor Power Shielded Thin Film 0.47uH 20% 1MHz Metal 2.6A 0.062Ohm DCR 0603 T/R</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>0.47uH</t>
-  </si>
-  <si>
-    <t>TFM160808ALC-R47MTAA</t>
-  </si>
-  <si>
-    <t>445-174891-1-ND</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -605,10 +575,10 @@
     <t>27R 0.1W 1% 0603 (1608 Metric)  SMD</t>
   </si>
   <si>
-    <t>R1, R2, R20, R21, R22</t>
-  </si>
-  <si>
-    <t>27R 1% 0603(1608)</t>
+    <t>R1, R2, R19, R20, R21</t>
+  </si>
+  <si>
+    <t>27R 1%</t>
   </si>
   <si>
     <t>Stackpole Electronics</t>
@@ -626,10 +596,10 @@
     <t>1K 0.1W 1% 0603 (1608 Metric)  SMD</t>
   </si>
   <si>
-    <t>R3, R5, R9, R18, R34, R35</t>
-  </si>
-  <si>
-    <t>1K 1% 0603(1608)</t>
+    <t>R3, R5, R9, R17, R33, R34</t>
+  </si>
+  <si>
+    <t>1K 1%</t>
   </si>
   <si>
     <t>RMCF0603FG1K00</t>
@@ -647,7 +617,7 @@
     <t>R4</t>
   </si>
   <si>
-    <t>Jumper 0603(1608)</t>
+    <t>Jumper</t>
   </si>
   <si>
     <t>RC0603JR-070RL</t>
@@ -662,10 +632,7 @@
     <t>Jumper 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>R6, R7, R8, R10, R15, R16, R17, R19</t>
-  </si>
-  <si>
-    <t>Jumper 0805(2012)</t>
+    <t>R6, R7, R8, R14, R15, R16, R18</t>
   </si>
   <si>
     <t>RC0805JR-070RL</t>
@@ -677,22 +644,22 @@
     <t>4K7 0.063W 1% 0402 (1005 Metric)  SMD</t>
   </si>
   <si>
-    <t>R11, R12, R13, R14</t>
-  </si>
-  <si>
-    <t>4K7 1% 0402(1005)</t>
+    <t>R10, R11, R12, R13</t>
+  </si>
+  <si>
+    <t>4K7 1%</t>
   </si>
   <si>
     <t>RMCF0402FT4K70</t>
   </si>
   <si>
-    <t>RMCF0402FT4K70DKR-ND</t>
+    <t>Arrow Electronics</t>
   </si>
   <si>
     <t>Chip Resistor, 10 KOhm, +/- 1%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>R23, R25, R27, R28</t>
+    <t>R22, R24, R26, R27</t>
   </si>
   <si>
     <t>ERJ3EKF1002V</t>
@@ -701,174 +668,159 @@
     <t>RMCF0402FT10K0</t>
   </si>
   <si>
+    <t>RMCF0402FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>100R 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R23, R25</t>
+  </si>
+  <si>
+    <t>100R 1%</t>
+  </si>
+  <si>
+    <t>RMCF0603FG100R</t>
+  </si>
+  <si>
+    <t>RMCF0603FG100RCT-ND</t>
+  </si>
+  <si>
+    <t>23K7 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>23K7 1%</t>
+  </si>
+  <si>
+    <t>RMCF0603FT23K7</t>
+  </si>
+  <si>
+    <t>RMCF0603FT23K7DKR-ND</t>
+  </si>
+  <si>
+    <t>86K6 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>86K6 1%</t>
+  </si>
+  <si>
+    <t>RMCF0402FT86K6</t>
+  </si>
+  <si>
+    <t>RMCF0402FT86K6DKR-ND</t>
+  </si>
+  <si>
+    <t>140K 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>140K 1%</t>
+  </si>
+  <si>
+    <t>RMCF0402FT140K</t>
+  </si>
+  <si>
+    <t>738-RMCF0402FT140KCT-ND</t>
+  </si>
+  <si>
+    <t>309K 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>309K 1%</t>
+  </si>
+  <si>
+    <t>RMCF0402FT309K</t>
+  </si>
+  <si>
+    <t>RMCF0402FT309KDKR-ND</t>
+  </si>
+  <si>
+    <t>453K 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R32, R37</t>
+  </si>
+  <si>
+    <t>453K 1%</t>
+  </si>
+  <si>
+    <t>RMCF0402FT453K</t>
+  </si>
+  <si>
+    <t>RMCF0402FT453KDKR-ND</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1K13 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R35, R36</t>
+  </si>
+  <si>
+    <t>1K13 1%</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K13</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K13DKR-ND</t>
+  </si>
+  <si>
+    <t>100K 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R38, R39</t>
+  </si>
+  <si>
+    <t>100K 1% 0402</t>
+  </si>
+  <si>
+    <t>RMCF0402FT100K</t>
+  </si>
+  <si>
+    <t>RMCF0402FT100KDKR-ND</t>
+  </si>
+  <si>
+    <t>10R 0.063W 1% 0402 (1005 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>10R 1%</t>
+  </si>
+  <si>
+    <t>RMCF0402JT10R0</t>
+  </si>
+  <si>
+    <t>RES Thick Film, 10kΩ, 1%, 0.063W, 100ppm/°C, 0402</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>10k 1%</t>
+  </si>
+  <si>
     <t>RMCF0402FT10K0DKR-ND</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>100R 0.1W 1% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R24, R26</t>
-  </si>
-  <si>
-    <t>100R 1% 0603(1608)</t>
-  </si>
-  <si>
-    <t>RMCF0603FG100R</t>
-  </si>
-  <si>
-    <t>RMCF0603FG100RCT-ND</t>
-  </si>
-  <si>
-    <t>23K7 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>23K7 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0603FT23K7</t>
-  </si>
-  <si>
-    <t>RMCF0603FT23K7DKR-ND</t>
-  </si>
-  <si>
-    <t>86K6 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>86K6 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402FT86K6</t>
-  </si>
-  <si>
-    <t>RMCF0402FT86K6DKR-ND</t>
-  </si>
-  <si>
-    <t>140K 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>140K 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402FT140K</t>
-  </si>
-  <si>
-    <t>738-RMCF0402FT140KCT-ND</t>
-  </si>
-  <si>
-    <t>309K 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>309K 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402FT309K</t>
-  </si>
-  <si>
-    <t>RMCF0402FT309KDKR-ND</t>
-  </si>
-  <si>
-    <t>453K 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R33, R38</t>
-  </si>
-  <si>
-    <t>453K 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402FT453K</t>
-  </si>
-  <si>
-    <t>RMCF0402FT453KDKR-ND</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1K13 0.1W 1% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R36, R37</t>
-  </si>
-  <si>
-    <t>1K13 1% 0603(1608)</t>
-  </si>
-  <si>
-    <t>RMCF0603FT1K13</t>
-  </si>
-  <si>
-    <t>RMCF0603FT1K13DKR-ND</t>
-  </si>
-  <si>
-    <t>100K 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R39, R40, R41, R43</t>
-  </si>
-  <si>
-    <t>100K 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402FT100K</t>
-  </si>
-  <si>
-    <t>RMCF0402FT100KDKR-ND</t>
-  </si>
-  <si>
-    <t>732K 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>732K 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402FT732K</t>
-  </si>
-  <si>
-    <t>RMCF0402FT732KCT-ND</t>
-  </si>
-  <si>
-    <t>10R 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>10R 1% 0402(1005)</t>
-  </si>
-  <si>
-    <t>RMCF0402JT10R0</t>
-  </si>
-  <si>
-    <t>RMCF0402JT10R0DKR-ND</t>
-  </si>
-  <si>
-    <t>RES Thick Film, 10kΩ, 1%, 0.063W, 100ppm/°C, 0402</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>CRCW040210K0FKEE</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -902,7 +854,7 @@
     <t>PTS810SJG250SMTRLFS</t>
   </si>
   <si>
-    <t>CKN10504DKR-ND</t>
+    <t>CKN10504CT-ND</t>
   </si>
   <si>
     <t>27</t>
@@ -998,7 +950,7 @@
     <t>2.4V-5.5V input, 4A step-down converter with 1% Accuracy in 1.5mm x 1.5mm QFN 6-VSON-HR -40 to 125</t>
   </si>
   <si>
-    <t>U6, U7</t>
+    <t>U6</t>
   </si>
   <si>
     <t>TPS62827DMQR</t>
@@ -1010,30 +962,30 @@
     <t>Sensor Controller Capacitive 3-CH I2C 8-Pin SOIC T/R</t>
   </si>
   <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>I2C Touch Sensor</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>CAP1203-1-SN-TR</t>
+  </si>
+  <si>
+    <t>Not Recommended for New Design</t>
+  </si>
+  <si>
+    <t>CAP1203-1-SN-CT-ND</t>
+  </si>
+  <si>
+    <t>HIGH ACCURACY AMBIENT LIGHT SENS</t>
+  </si>
+  <si>
     <t>U8</t>
   </si>
   <si>
-    <t>I2C Touch Sensor</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>CAP1203-1-SN-TR</t>
-  </si>
-  <si>
-    <t>Not Recommended for New Design</t>
-  </si>
-  <si>
-    <t>CAP1203-1-SN-CT-ND</t>
-  </si>
-  <si>
-    <t>HIGH ACCURACY AMBIENT LIGHT SENS</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
     <t>I2C Light Sensor</t>
   </si>
   <si>
@@ -1065,9 +1017,6 @@
   </si>
   <si>
     <t>2195-CC7V-T1A-32.768KHZ-12.5PF-20PPM-TA-QCCT-ND</t>
-  </si>
-  <si>
-    <t>DNP</t>
   </si>
   <si>
     <t>DNP</t>
@@ -1467,14 +1416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B604E7-F6F7-437C-849B-D2EA70CF22BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631BCC83-1E14-4CDB-8A36-7343F45CDF51}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1536,10 +1485,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -1551,16 +1500,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
@@ -1574,31 +1523,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -1609,34 +1558,34 @@
     </row>
     <row r="4" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4">
         <v>0.1</v>
@@ -1647,34 +1596,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4">
         <v>0.1</v>
@@ -1685,34 +1634,34 @@
     </row>
     <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="4">
         <v>0.42</v>
@@ -1726,31 +1675,31 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7" s="4">
         <v>0.1</v>
@@ -1761,34 +1710,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K8" s="4">
         <v>0.15</v>
@@ -1799,34 +1748,34 @@
     </row>
     <row r="9" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="4">
         <v>0.39</v>
@@ -1837,34 +1786,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K10" s="4">
         <v>0.25</v>
@@ -1878,31 +1827,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="4">
         <v>0.1</v>
@@ -1916,31 +1865,31 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K12" s="4">
         <v>0.63</v>
@@ -1954,31 +1903,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="4">
         <v>0.1</v>
@@ -1992,31 +1941,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="4">
         <v>0.26</v>
@@ -2030,31 +1979,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K15" s="4">
         <v>0.1</v>
@@ -2063,36 +2012,36 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K16" s="4">
         <v>0.1</v>
@@ -2106,37 +2055,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K17" s="4">
         <v>0.49</v>
       </c>
       <c r="L17" s="4">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
@@ -2144,31 +2093,31 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K18" s="4">
         <v>1.06</v>
@@ -2182,37 +2131,37 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="K19" s="4">
-        <v>1.06</v>
+        <v>0.15</v>
       </c>
       <c r="L19" s="4">
-        <v>1.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
@@ -2220,843 +2169,845 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="K20" s="4">
         <v>0.1</v>
       </c>
       <c r="L20" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K22" s="4">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="L22" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K23" s="4">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="L23" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K24" s="4">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="L24" s="4">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K25" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0.26</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K27" s="4">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="L27" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K29" s="4">
-        <v>1.02</v>
+        <v>0.33</v>
       </c>
       <c r="L29" s="4">
-        <v>1.02</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K30" s="4">
-        <v>1.36</v>
+        <v>0.53</v>
       </c>
       <c r="L30" s="4">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K31" s="4">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="L31" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="138" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0.43</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K33" s="4">
-        <v>0.53</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L33" s="4">
-        <v>1.06</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D34" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="138" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="4">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D36" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K36" s="4">
-        <v>1.4E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="L36" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D37" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K37" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L39" s="4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="E40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="4">
         <v>0.1</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L40" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="4">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K39" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D41" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K41" s="4">
-        <v>1.4E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L41" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K42" s="4">
-        <v>1.6E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L42" s="4">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,31 +3015,31 @@
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K43" s="4">
         <v>0.1</v>
@@ -3102,75 +3053,75 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K44" s="4">
-        <v>0.1</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L44" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K45" s="4">
-        <v>0.1</v>
+        <v>1.6E-2</v>
       </c>
       <c r="L45" s="4">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3178,37 +3129,37 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K46" s="4">
-        <v>0.1</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L46" s="4">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,113 +3167,113 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K47" s="4">
-        <v>1.4E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="L47" s="4">
-        <v>0.14000000000000001</v>
+        <v>1.32E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K48" s="4">
-        <v>1.6E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L48" s="4">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D49" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K49" s="4">
-        <v>1.4E-2</v>
+        <v>1.83</v>
       </c>
       <c r="L49" s="4">
-        <v>0.14000000000000001</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3330,522 +3281,370 @@
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K50" s="4">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="L50" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K51" s="4">
-        <v>0.1</v>
+        <v>2.04</v>
       </c>
       <c r="L51" s="4">
-        <v>0.1</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="K52" s="4">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="L52" s="4">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1.83</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K54" s="4">
-        <v>0.37</v>
+        <v>4.55</v>
       </c>
       <c r="L54" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K55" s="4">
-        <v>2.04</v>
+        <v>2.19</v>
       </c>
       <c r="L55" s="4">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0.73</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K58" s="4">
-        <v>4.55</v>
+        <v>2</v>
       </c>
       <c r="L58" s="4">
-        <v>4.55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K59" s="4">
-        <v>2.19</v>
+        <v>0.61</v>
       </c>
       <c r="L59" s="4">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L61" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D62" s="4">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="K62" s="4">
-        <v>2</v>
-      </c>
-      <c r="L62" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="L63" s="4">
         <v>0.61</v>
       </c>
     </row>
@@ -3853,6 +3652,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="38" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>